--- a/111.xlsx
+++ b/111.xlsx
@@ -2191,9 +2191,45 @@
     <t>nonononono</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2022-01-01</t>
   </si>
   <si>
+    <t>2022-02-08</t>
+  </si>
+  <si>
+    <t>2022-02-07</t>
+  </si>
+  <si>
+    <t>2022-02-27</t>
+  </si>
+  <si>
+    <t>2022-03-22</t>
+  </si>
+  <si>
+    <t>2022-02-16</t>
+  </si>
+  <si>
+    <t>2022-03-10</t>
+  </si>
+  <si>
+    <t>2022-02-10</t>
+  </si>
+  <si>
+    <t>2022-03-02</t>
+  </si>
+  <si>
+    <t>2022-02-14</t>
+  </si>
+  <si>
+    <t>2022-02-13</t>
+  </si>
+  <si>
+    <t>2022-03-05</t>
+  </si>
+  <si>
     <t>2022-01-02</t>
   </si>
   <si>
@@ -2206,103 +2242,67 @@
     <t>2022-01-05</t>
   </si>
   <si>
-    <t/>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>4411.81</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>0.8</t>
   </si>
   <si>
     <t>测试1</t>
   </si>
   <si>
-    <t>2022-02-08</t>
-  </si>
-  <si>
-    <t>2022-02-07</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>4411.81</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
     <t>-14</t>
-  </si>
-  <si>
-    <t>2022-02-27</t>
-  </si>
-  <si>
-    <t>2022-03-22</t>
-  </si>
-  <si>
-    <t>2022-02-16</t>
-  </si>
-  <si>
-    <t>2022-03-10</t>
-  </si>
-  <si>
-    <t>2022-02-10</t>
-  </si>
-  <si>
-    <t>2022-03-02</t>
-  </si>
-  <si>
-    <t>2022-02-14</t>
-  </si>
-  <si>
-    <t>2022-02-13</t>
-  </si>
-  <si>
-    <t>2022-03-05</t>
   </si>
 </sst>
 </file>
@@ -2671,7 +2671,7 @@
         <v>674</v>
       </c>
       <c r="K4" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.1" customHeight="true">
@@ -2688,7 +2688,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>18</v>
@@ -2720,7 +2720,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>22</v>
@@ -2752,7 +2752,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>26</v>
@@ -2764,7 +2764,7 @@
         <v>27</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J7" t="s">
         <v>674</v>
@@ -2796,7 +2796,7 @@
         <v>27</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J8" t="s">
         <v>674</v>
@@ -2828,7 +2828,7 @@
         <v>27</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J9" t="s">
         <v>674</v>
@@ -2848,7 +2848,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>33</v>
@@ -2860,7 +2860,7 @@
         <v>27</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J10" t="s">
         <v>674</v>
@@ -2880,7 +2880,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>35</v>
@@ -2892,7 +2892,7 @@
         <v>27</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J11" t="s">
         <v>674</v>
@@ -2912,7 +2912,7 @@
         <v>37</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>38</v>
@@ -2976,7 +2976,7 @@
         <v>34</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>35</v>
@@ -2988,7 +2988,7 @@
         <v>43</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J14" t="s">
         <v>674</v>
@@ -3008,7 +3008,7 @@
         <v>34</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>45</v>
@@ -3020,7 +3020,7 @@
         <v>43</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J15" t="s">
         <v>674</v>
@@ -3040,7 +3040,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>45</v>
@@ -3052,7 +3052,7 @@
         <v>43</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J16" t="s">
         <v>674</v>
@@ -3072,7 +3072,7 @@
         <v>34</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>45</v>
@@ -3084,7 +3084,7 @@
         <v>43</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J17" t="s">
         <v>674</v>
@@ -3116,7 +3116,7 @@
         <v>27</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J18" t="s">
         <v>675</v>
@@ -3148,7 +3148,7 @@
         <v>27</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J19" t="s">
         <v>675</v>
@@ -3180,7 +3180,7 @@
         <v>27</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J20" t="s">
         <v>675</v>
@@ -3200,7 +3200,7 @@
         <v>53</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>54</v>
@@ -3212,7 +3212,7 @@
         <v>55</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J21" t="s">
         <v>675</v>
@@ -3244,7 +3244,7 @@
         <v>60</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J22" t="s">
         <v>675</v>
@@ -3276,7 +3276,7 @@
         <v>64</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J23" t="s">
         <v>675</v>
@@ -3308,7 +3308,7 @@
         <v>60</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J24" t="s">
         <v>675</v>
@@ -3340,7 +3340,7 @@
         <v>64</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J25" t="s">
         <v>675</v>
@@ -3372,7 +3372,7 @@
         <v>60</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J26" t="s">
         <v>675</v>
@@ -3404,7 +3404,7 @@
         <v>64</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J27" t="s">
         <v>675</v>
@@ -3424,7 +3424,7 @@
         <v>53</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>54</v>
@@ -3436,7 +3436,7 @@
         <v>70</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J28" t="s">
         <v>675</v>
@@ -3468,7 +3468,7 @@
         <v>72</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J29" t="s">
         <v>675</v>
@@ -3596,7 +3596,7 @@
         <v>75</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>76</v>
@@ -3871,7 +3871,7 @@
         <v>94</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>94</v>
@@ -3929,7 +3929,7 @@
         <v>94</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>94</v>
@@ -4103,7 +4103,7 @@
         <v>94</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>94</v>
@@ -4161,7 +4161,7 @@
         <v>94</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>94</v>
@@ -4336,25 +4336,25 @@
         <v>165</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>12</v>
@@ -4433,7 +4433,7 @@
         <v>94</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>179</v>
@@ -4471,31 +4471,31 @@
         <v>94</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>180</v>
@@ -4551,10 +4551,10 @@
         <v>94</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>180</v>
@@ -4697,25 +4697,25 @@
         <v>165</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>39</v>
@@ -4794,7 +4794,7 @@
         <v>94</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>179</v>
@@ -4832,31 +4832,31 @@
         <v>94</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>180</v>
@@ -4912,10 +4912,10 @@
         <v>94</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>180</v>
@@ -5405,7 +5405,7 @@
         <v>94</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>94</v>
@@ -5434,7 +5434,7 @@
         <v>94</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>94</v>
@@ -5571,7 +5571,7 @@
         <v>94</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>94</v>
@@ -5716,7 +5716,7 @@
         <v>94</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>94</v>
@@ -5745,7 +5745,7 @@
         <v>94</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>94</v>
@@ -5947,7 +5947,7 @@
         <v>205</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>229</v>
@@ -6021,7 +6021,7 @@
         <v>232</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>95</v>
@@ -6050,7 +6050,7 @@
         <v>233</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>95</v>
@@ -6644,7 +6644,7 @@
         <v>227</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>229</v>
@@ -6673,7 +6673,7 @@
         <v>227</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>235</v>
@@ -6702,7 +6702,7 @@
         <v>205</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>229</v>
@@ -6731,7 +6731,7 @@
         <v>131</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>235</v>
@@ -6760,7 +6760,7 @@
         <v>131</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>235</v>
@@ -6789,7 +6789,7 @@
         <v>227</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>229</v>
@@ -6818,7 +6818,7 @@
         <v>227</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>229</v>
@@ -6847,7 +6847,7 @@
         <v>227</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>235</v>
@@ -7021,10 +7021,10 @@
         <v>254</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>95</v>
@@ -7050,10 +7050,10 @@
         <v>254</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>95</v>
@@ -7502,7 +7502,7 @@
         <v>674</v>
       </c>
       <c r="H4" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.1" customHeight="true">
@@ -9483,10 +9483,10 @@
         <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
@@ -9495,7 +9495,7 @@
         <v>674</v>
       </c>
       <c r="I4" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.1" customHeight="true">
@@ -9515,7 +9515,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
@@ -9555,7 +9555,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -9661,13 +9661,13 @@
         <v>338</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>339</v>
@@ -9689,13 +9689,13 @@
         <v>338</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>339</v>
@@ -9717,13 +9717,13 @@
         <v>338</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>339</v>
@@ -9745,13 +9745,13 @@
         <v>338</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>339</v>
@@ -9773,13 +9773,13 @@
         <v>266</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>343</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>339</v>
@@ -9801,13 +9801,13 @@
         <v>263</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>344</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>339</v>
@@ -9832,7 +9832,7 @@
         <v>345</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>346</v>
@@ -9862,7 +9862,7 @@
         <v>348</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>346</v>
@@ -9892,7 +9892,7 @@
         <v>350</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>351</v>
@@ -9901,7 +9901,7 @@
         <v>339</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>352</v>
@@ -9921,7 +9921,7 @@
         <v>263</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>354</v>
@@ -9948,7 +9948,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>351</v>
@@ -9976,7 +9976,7 @@
         <v>350</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>346</v>
@@ -10001,10 +10001,10 @@
         <v>338</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>346</v>
@@ -10103,7 +10103,7 @@
         <v>367</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>204</v>
@@ -10126,10 +10126,10 @@
         <v>346</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>204</v>
@@ -10152,10 +10152,10 @@
         <v>346</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>204</v>
@@ -10178,10 +10178,10 @@
         <v>346</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>204</v>
@@ -10204,10 +10204,10 @@
         <v>346</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>204</v>
@@ -10230,10 +10230,10 @@
         <v>351</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>208</v>
@@ -10282,10 +10282,10 @@
         <v>351</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>208</v>
@@ -10308,10 +10308,10 @@
         <v>351</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>208</v>
@@ -10334,10 +10334,10 @@
         <v>351</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>208</v>
@@ -10360,10 +10360,10 @@
         <v>351</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>208</v>
@@ -10459,7 +10459,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>365</v>
@@ -10471,7 +10471,7 @@
         <v>367</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>204</v>
@@ -10488,7 +10488,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>369</v>
@@ -10497,10 +10497,10 @@
         <v>346</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>204</v>
@@ -10526,10 +10526,10 @@
         <v>351</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>201</v>
@@ -10613,10 +10613,10 @@
         <v>351</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>208</v>
@@ -10662,7 +10662,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>370</v>
@@ -10671,10 +10671,10 @@
         <v>346</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>204</v>
@@ -10691,7 +10691,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>372</v>
@@ -10700,10 +10700,10 @@
         <v>346</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>204</v>
@@ -10720,7 +10720,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>365</v>
@@ -10749,7 +10749,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>369</v>
@@ -10758,10 +10758,10 @@
         <v>346</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>204</v>
@@ -10778,7 +10778,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>365</v>
@@ -10807,7 +10807,7 @@
         <v>24</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>369</v>
@@ -10816,10 +10816,10 @@
         <v>346</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>204</v>
@@ -10836,7 +10836,7 @@
         <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>370</v>
@@ -10845,10 +10845,10 @@
         <v>346</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>204</v>
@@ -10865,7 +10865,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>365</v>
@@ -10877,7 +10877,7 @@
         <v>376</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>204</v>
@@ -10894,7 +10894,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>369</v>
@@ -10903,10 +10903,10 @@
         <v>346</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>204</v>
@@ -10923,7 +10923,7 @@
         <v>24</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>372</v>
@@ -10932,10 +10932,10 @@
         <v>346</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>204</v>
@@ -11039,13 +11039,13 @@
         <v>394</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>395</v>
@@ -11069,13 +11069,13 @@
         <v>396</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>395</v>
@@ -11099,13 +11099,13 @@
         <v>397</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>395</v>
@@ -11129,13 +11129,13 @@
         <v>398</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>395</v>
@@ -11159,13 +11159,13 @@
         <v>396</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>399</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>395</v>
@@ -11189,16 +11189,16 @@
         <v>396</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>399</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>400</v>
@@ -11221,13 +11221,13 @@
         <v>394</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>399</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>395</v>
@@ -11251,16 +11251,16 @@
         <v>394</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>399</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>400</v>
@@ -11289,7 +11289,7 @@
         <v>399</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>395</v>
@@ -11319,7 +11319,7 @@
         <v>399</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>395</v>
@@ -11343,16 +11343,16 @@
         <v>394</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>401</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>400</v>
@@ -11375,13 +11375,13 @@
         <v>394</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>399</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>395</v>
@@ -11405,16 +11405,16 @@
         <v>394</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>399</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>400</v>
@@ -11437,7 +11437,7 @@
         <v>396</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>8</v>
@@ -11446,7 +11446,7 @@
         <v>74</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>400</v>
@@ -11469,7 +11469,7 @@
         <v>396</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>8</v>
@@ -11478,7 +11478,7 @@
         <v>72</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>400</v>
@@ -11593,13 +11593,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>338</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>411</v>
@@ -11628,13 +11628,13 @@
         <v>58</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>338</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>412</v>
@@ -11663,13 +11663,13 @@
         <v>48</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>338</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>413</v>
@@ -11698,13 +11698,13 @@
         <v>82</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>338</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>414</v>
@@ -11733,13 +11733,13 @@
         <v>138</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>338</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>415</v>
@@ -11768,13 +11768,13 @@
         <v>242</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>338</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>416</v>
@@ -11803,7 +11803,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>203</v>
@@ -11828,13 +11828,13 @@
         <v>94</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>338</v>
@@ -11868,7 +11868,7 @@
         <v>394</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>399</v>
@@ -11975,13 +11975,13 @@
         <v>394</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>399</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>395</v>
@@ -12005,16 +12005,16 @@
         <v>394</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>399</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>400</v>
@@ -12037,13 +12037,13 @@
         <v>394</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>399</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>395</v>
@@ -12067,16 +12067,16 @@
         <v>394</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>399</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>400</v>
@@ -12099,13 +12099,13 @@
         <v>396</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>399</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>395</v>
@@ -12129,16 +12129,16 @@
         <v>396</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>399</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>400</v>
@@ -12167,7 +12167,7 @@
         <v>399</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>395</v>
@@ -12197,7 +12197,7 @@
         <v>399</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>395</v>
@@ -12221,16 +12221,16 @@
         <v>394</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>401</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>400</v>
@@ -12253,13 +12253,13 @@
         <v>394</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>399</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>395</v>
@@ -12283,16 +12283,16 @@
         <v>394</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>399</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>400</v>
@@ -12315,13 +12315,13 @@
         <v>394</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>399</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>395</v>
@@ -12345,16 +12345,16 @@
         <v>394</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>399</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>400</v>
@@ -12377,7 +12377,7 @@
         <v>396</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>8</v>
@@ -12386,7 +12386,7 @@
         <v>74</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>400</v>
@@ -12409,7 +12409,7 @@
         <v>396</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>8</v>
@@ -12418,7 +12418,7 @@
         <v>72</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>400</v>
@@ -12525,10 +12525,10 @@
         <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>203</v>
@@ -12555,10 +12555,10 @@
         <v>58</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>203</v>
@@ -12579,16 +12579,16 @@
         <v>429</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>338</v>
@@ -12618,10 +12618,10 @@
         <v>394</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>431</v>
@@ -12725,13 +12725,13 @@
         <v>394</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>431</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>395</v>
@@ -12755,16 +12755,16 @@
         <v>394</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>431</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>400</v>
@@ -12787,13 +12787,13 @@
         <v>394</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>431</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>395</v>
@@ -12817,16 +12817,16 @@
         <v>394</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>431</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>400</v>
@@ -12849,13 +12849,13 @@
         <v>394</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>431</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>395</v>
@@ -12879,16 +12879,16 @@
         <v>394</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>431</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>400</v>
@@ -12911,13 +12911,13 @@
         <v>396</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>431</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>395</v>
@@ -12941,16 +12941,16 @@
         <v>396</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>431</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>400</v>
@@ -12979,7 +12979,7 @@
         <v>431</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>395</v>
@@ -13009,7 +13009,7 @@
         <v>431</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>395</v>
@@ -13033,13 +13033,13 @@
         <v>394</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>431</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>395</v>
@@ -13063,16 +13063,16 @@
         <v>394</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>431</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>400</v>
@@ -13095,16 +13095,16 @@
         <v>394</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>401</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>400</v>
@@ -13127,7 +13127,7 @@
         <v>396</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>8</v>
@@ -13136,7 +13136,7 @@
         <v>72</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>400</v>
@@ -13159,7 +13159,7 @@
         <v>396</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>8</v>
@@ -13168,7 +13168,7 @@
         <v>74</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>400</v>
@@ -13291,7 +13291,7 @@
         <v>444</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>338</v>
@@ -13330,7 +13330,7 @@
         <v>444</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>338</v>
@@ -13372,7 +13372,7 @@
         <v>94</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>56</v>
@@ -13384,13 +13384,13 @@
         <v>94</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>706</v>
+        <v>681</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>445</v>
@@ -13417,7 +13417,7 @@
         <v>94</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>61</v>
@@ -13429,13 +13429,13 @@
         <v>94</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>707</v>
+        <v>682</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>707</v>
+        <v>682</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>706</v>
+        <v>681</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>445</v>
@@ -13462,7 +13462,7 @@
         <v>94</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>56</v>
@@ -13474,13 +13474,13 @@
         <v>94</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>709</v>
+        <v>684</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>445</v>
@@ -13489,7 +13489,7 @@
         <v>446</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>448</v>
@@ -13509,7 +13509,7 @@
         <v>94</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>61</v>
@@ -13521,13 +13521,13 @@
         <v>94</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -13548,7 +13548,7 @@
         <v>94</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>56</v>
@@ -13560,13 +13560,13 @@
         <v>94</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>712</v>
+        <v>687</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>713</v>
+        <v>688</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -13725,58 +13725,58 @@
     </row>
     <row r="4" spans="1:24" ht="14.1" customHeight="true">
       <c r="A4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>468</v>
@@ -13791,58 +13791,58 @@
     </row>
     <row r="5" spans="1:24" ht="14.1" customHeight="true">
       <c r="A5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>468</v>
@@ -13857,58 +13857,58 @@
     </row>
     <row r="6" spans="1:24" ht="14.1" customHeight="true">
       <c r="A6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>468</v>
@@ -13923,58 +13923,58 @@
     </row>
     <row r="7" spans="1:24" ht="14.1" customHeight="true">
       <c r="A7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>468</v>
@@ -13989,58 +13989,58 @@
     </row>
     <row r="8" spans="1:24" ht="14.1" customHeight="true">
       <c r="A8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>468</v>
@@ -14055,7 +14055,7 @@
     </row>
     <row r="9" spans="1:24" ht="14.1" customHeight="true">
       <c r="A9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>51</v>
@@ -14181,58 +14181,58 @@
         <v>368</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>468</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="W12" s="2" t="s">
         <v>474</v>
@@ -14253,58 +14253,58 @@
         <v>371</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>468</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="W13" s="2" t="s">
         <v>474</v>
@@ -14325,58 +14325,58 @@
         <v>373</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>474</v>
@@ -14397,58 +14397,58 @@
         <v>373</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="W15" s="2" t="s">
         <v>474</v>
@@ -14471,58 +14471,58 @@
         <v>373</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="W16" s="2" t="s">
         <v>474</v>
@@ -14780,10 +14780,10 @@
         <v>94</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>94</v>
@@ -14792,37 +14792,37 @@
         <v>478</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>468</v>
@@ -14853,7 +14853,7 @@
         <v>480</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>94</v>
@@ -14865,34 +14865,34 @@
         <v>481</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>468</v>
@@ -14929,40 +14929,40 @@
         <v>94</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="P26" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="R26" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>695</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>468</v>
@@ -14971,7 +14971,7 @@
         <v>350</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="V26" s="2" t="s">
         <v>348</v>
@@ -15071,22 +15071,22 @@
         <v>94</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I4" t="s">
         <v>674</v>
       </c>
       <c r="J4" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="true">
@@ -15267,58 +15267,58 @@
     </row>
     <row r="4" spans="1:24" ht="14.1" customHeight="true">
       <c r="A4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>468</v>
@@ -15333,58 +15333,58 @@
     </row>
     <row r="5" spans="1:24" ht="14.1" customHeight="true">
       <c r="A5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>468</v>
@@ -15399,58 +15399,58 @@
     </row>
     <row r="6" spans="1:24" ht="14.1" customHeight="true">
       <c r="A6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>468</v>
@@ -15465,58 +15465,58 @@
     </row>
     <row r="7" spans="1:24" ht="14.1" customHeight="true">
       <c r="A7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>468</v>
@@ -15531,58 +15531,58 @@
     </row>
     <row r="8" spans="1:24" ht="14.1" customHeight="true">
       <c r="A8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>468</v>
@@ -15597,7 +15597,7 @@
     </row>
     <row r="9" spans="1:24" ht="14.1" customHeight="true">
       <c r="A9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>51</v>
@@ -15723,58 +15723,58 @@
         <v>368</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>468</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="W12" s="2" t="s">
         <v>474</v>
@@ -15795,58 +15795,58 @@
         <v>371</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>468</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="W13" s="2" t="s">
         <v>474</v>
@@ -15867,58 +15867,58 @@
         <v>373</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>474</v>
@@ -15939,58 +15939,58 @@
         <v>373</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="W15" s="2" t="s">
         <v>474</v>
@@ -16013,58 +16013,58 @@
         <v>373</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="W16" s="2" t="s">
         <v>474</v>
@@ -16322,10 +16322,10 @@
         <v>94</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>94</v>
@@ -16334,37 +16334,37 @@
         <v>478</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>468</v>
@@ -16395,7 +16395,7 @@
         <v>480</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>94</v>
@@ -16407,34 +16407,34 @@
         <v>481</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>468</v>
@@ -16471,40 +16471,40 @@
         <v>94</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="P26" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="R26" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>695</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>468</v>
@@ -16513,7 +16513,7 @@
         <v>350</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="V26" s="2" t="s">
         <v>348</v>
@@ -16652,7 +16652,7 @@
         <v>499</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>500</v>
@@ -16676,7 +16676,7 @@
         <v>504</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>505</v>
@@ -16700,7 +16700,7 @@
         <v>507</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>508</v>
@@ -16724,7 +16724,7 @@
         <v>504</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>509</v>
@@ -16748,7 +16748,7 @@
         <v>511</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>512</v>
@@ -16772,7 +16772,7 @@
         <v>504</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>513</v>
@@ -16894,16 +16894,16 @@
         <v>444</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>520</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>264</v>
@@ -16915,10 +16915,10 @@
         <v>521</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -16936,16 +16936,16 @@
         <v>444</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>520</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>52</v>
@@ -16960,7 +16960,7 @@
         <v>55</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>58</v>
@@ -16980,10 +16980,10 @@
         <v>444</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
@@ -17001,10 +17001,10 @@
         <v>521</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>13</v>
@@ -17024,10 +17024,10 @@
         <v>444</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
@@ -17048,7 +17048,7 @@
         <v>70</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>48</v>
@@ -17068,28 +17068,28 @@
         <v>444</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>520</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>338</v>
@@ -17277,7 +17277,7 @@
         <v>95</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>535</v>
@@ -17328,13 +17328,13 @@
         <v>95</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>535</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>537</v>
@@ -17348,13 +17348,13 @@
         <v>51</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>342</v>
@@ -17384,7 +17384,7 @@
         <v>539</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>536</v>
@@ -17430,13 +17430,13 @@
         <v>69</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>52</v>
@@ -17463,7 +17463,7 @@
         <v>95</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>535</v>
@@ -17608,10 +17608,10 @@
         <v>94</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>338</v>
@@ -17639,7 +17639,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>549</v>
@@ -17980,7 +17980,7 @@
         <v>556</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>567</v>
@@ -18007,7 +18007,7 @@
         <v>556</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>567</v>
@@ -18036,7 +18036,7 @@
         <v>556</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>567</v>
@@ -18065,7 +18065,7 @@
         <v>556</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>567</v>
@@ -18092,7 +18092,7 @@
         <v>556</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>567</v>
@@ -19288,25 +19288,25 @@
         <v>227</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>585</v>
@@ -19333,25 +19333,25 @@
         <v>216</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>585</v>
@@ -19384,19 +19384,19 @@
         <v>216</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>585</v>
@@ -19444,7 +19444,7 @@
         <v>216</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>586</v>
@@ -19473,22 +19473,22 @@
         <v>58</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>585</v>
@@ -19521,19 +19521,19 @@
         <v>236</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>585</v>
@@ -19566,19 +19566,19 @@
         <v>236</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>585</v>
@@ -19623,10 +19623,10 @@
         <v>97</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>586</v>
@@ -19658,19 +19658,19 @@
         <v>236</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>585</v>
@@ -19718,7 +19718,7 @@
         <v>97</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>586</v>
@@ -19765,7 +19765,7 @@
         <v>97</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>586</v>
@@ -19812,7 +19812,7 @@
         <v>97</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>586</v>
@@ -19859,7 +19859,7 @@
         <v>97</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>586</v>
@@ -19891,19 +19891,19 @@
         <v>236</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>585</v>
@@ -19951,7 +19951,7 @@
         <v>97</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>586</v>
@@ -19998,7 +19998,7 @@
         <v>97</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>586</v>
@@ -20042,10 +20042,10 @@
         <v>97</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>586</v>
@@ -20092,7 +20092,7 @@
         <v>97</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>586</v>
@@ -20124,19 +20124,19 @@
         <v>236</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>585</v>
@@ -20169,19 +20169,19 @@
         <v>236</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>585</v>
@@ -20214,19 +20214,19 @@
         <v>216</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>585</v>
@@ -20259,19 +20259,19 @@
         <v>234</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>585</v>
@@ -20304,19 +20304,19 @@
         <v>231</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>585</v>
@@ -20349,19 +20349,19 @@
         <v>236</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>585</v>
@@ -20394,19 +20394,19 @@
         <v>231</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>585</v>
@@ -20439,19 +20439,19 @@
         <v>236</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>585</v>
@@ -20484,19 +20484,19 @@
         <v>236</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>585</v>
@@ -20600,7 +20600,7 @@
         <v>95</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I4" t="s">
         <v>674</v>
@@ -20822,7 +20822,7 @@
         <v>227</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>578</v>
@@ -20859,7 +20859,7 @@
         <v>231</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>581</v>
@@ -20884,28 +20884,28 @@
         <v>218</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>12</v>
@@ -20920,7 +20920,7 @@
         <v>592</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>231</v>
@@ -21081,10 +21081,10 @@
         <v>205</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>596</v>
@@ -21399,7 +21399,7 @@
         <v>216</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>579</v>
@@ -21436,7 +21436,7 @@
         <v>231</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>581</v>
@@ -21584,28 +21584,28 @@
         <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>39</v>
@@ -21620,7 +21620,7 @@
         <v>592</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>231</v>
@@ -21639,28 +21639,28 @@
         <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>39</v>
@@ -21834,10 +21834,10 @@
         <v>207</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>604</v>
@@ -22698,7 +22698,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>8</v>
@@ -23139,7 +23139,7 @@
         <v>205</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>338</v>
@@ -23173,7 +23173,7 @@
         <v>236</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>338</v>
@@ -23321,7 +23321,7 @@
         <v>236</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>338</v>
@@ -23355,7 +23355,7 @@
         <v>234</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>338</v>
@@ -23389,7 +23389,7 @@
         <v>231</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>338</v>
@@ -23461,7 +23461,7 @@
         <v>205</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>338</v>
@@ -23477,22 +23477,22 @@
         <v>247</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>17</v>
@@ -23531,7 +23531,7 @@
         <v>227</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>338</v>
@@ -23565,7 +23565,7 @@
         <v>227</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>338</v>
@@ -23599,7 +23599,7 @@
         <v>236</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>338</v>
@@ -23633,7 +23633,7 @@
         <v>252</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>338</v>
@@ -23761,7 +23761,7 @@
         <v>94</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>338</v>
@@ -23776,25 +23776,25 @@
         <v>641</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>21</v>
@@ -23952,19 +23952,19 @@
         <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L4" t="s">
         <v>674</v>
@@ -24150,40 +24150,40 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>338</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>338</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>17</v>
@@ -24203,22 +24203,22 @@
         <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>338</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>338</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>575</v>
@@ -24239,7 +24239,7 @@
         <v>205</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>338</v>
@@ -24254,22 +24254,22 @@
         <v>165</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>338</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>338</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>575</v>
@@ -24290,7 +24290,7 @@
         <v>236</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>338</v>
@@ -24305,22 +24305,22 @@
         <v>238</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>338</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>338</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>575</v>
@@ -24358,22 +24358,22 @@
         <v>238</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>338</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>338</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>575</v>
@@ -24411,22 +24411,22 @@
         <v>238</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>338</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>338</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>575</v>
@@ -24464,22 +24464,22 @@
         <v>244</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>338</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>338</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>575</v>
@@ -24500,7 +24500,7 @@
         <v>236</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>338</v>
@@ -24515,22 +24515,22 @@
         <v>244</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>338</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>338</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>575</v>
@@ -24551,7 +24551,7 @@
         <v>231</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>338</v>
@@ -24566,22 +24566,22 @@
         <v>244</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>338</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>338</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>575</v>
@@ -24602,7 +24602,7 @@
         <v>234</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>338</v>
@@ -24617,22 +24617,22 @@
         <v>245</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>338</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>338</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>575</v>
@@ -24670,22 +24670,22 @@
         <v>246</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>338</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>338</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>575</v>
@@ -24732,31 +24732,31 @@
         <v>229</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>338</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>17</v>
@@ -24776,13 +24776,13 @@
         <v>248</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>338</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>37</v>
@@ -24794,25 +24794,25 @@
         <v>229</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>338</v>
@@ -24827,22 +24827,22 @@
         <v>249</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>338</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>338</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>575</v>
@@ -24863,7 +24863,7 @@
         <v>227</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>338</v>
@@ -24878,40 +24878,40 @@
         <v>649</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>338</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>338</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>17</v>
@@ -24984,22 +24984,22 @@
         <v>51</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>338</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>338</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>575</v>
@@ -25020,7 +25020,7 @@
         <v>252</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>338</v>
@@ -25035,22 +25035,22 @@
         <v>51</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>338</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>338</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>575</v>
@@ -25071,7 +25071,7 @@
         <v>236</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>338</v>
@@ -25199,10 +25199,10 @@
         <v>248</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>338</v>
@@ -25385,7 +25385,7 @@
         <v>204</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>661</v>
@@ -25424,7 +25424,7 @@
         <v>339</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>663</v>
@@ -25459,10 +25459,10 @@
         <v>208</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>663</v>
@@ -25553,7 +25553,7 @@
         <v>350</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>470</v>
@@ -25562,7 +25562,7 @@
         <v>471</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>339</v>
@@ -25587,7 +25587,7 @@
         <v>350</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>470</v>
@@ -25596,7 +25596,7 @@
         <v>471</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>339</v>
@@ -25621,7 +25621,7 @@
         <v>350</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>470</v>
@@ -25630,7 +25630,7 @@
         <v>471</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>339</v>
@@ -25881,19 +25881,19 @@
         <v>13</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>672</v>
@@ -26063,64 +26063,64 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>125</v>
@@ -26155,46 +26155,46 @@
         <v>97</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>13</v>
@@ -26227,22 +26227,22 @@
         <v>97</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>126</v>
@@ -26296,19 +26296,19 @@
         <v>94</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>129</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>130</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>53</v>
@@ -26376,13 +26376,13 @@
         <v>133</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>134</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>53</v>
@@ -26418,7 +26418,7 @@
         <v>13</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="14.1" customHeight="true">
@@ -26444,13 +26444,13 @@
         <v>94</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>136</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>8</v>
@@ -26530,7 +26530,7 @@
         <v>137</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>53</v>
@@ -26566,7 +26566,7 @@
         <v>13</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="14.1" customHeight="true">
@@ -26598,13 +26598,13 @@
         <v>129</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>130</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>53</v>
@@ -26637,63 +26637,63 @@
         <v>27</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" spans="18:18" ht="12" customHeight="true">
       <c r="A21" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B21" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C21" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D21" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E21" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F21" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G21" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H21" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I21" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J21" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K21" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L21" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M21" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N21" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O21" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P21" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="Q21" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="R21" t="s">
         <v>673</v>
@@ -26985,7 +26985,7 @@
         <v>94</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>20</v>
@@ -27028,7 +27028,7 @@
         <v>153</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>27</v>
@@ -27057,7 +27057,7 @@
         <v>94</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>20</v>
